--- a/SBA Calculator v1.xlsx
+++ b/SBA Calculator v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\Documents\RationalPilot\Wall Street\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1E334-7DFA-4CB9-9586-A8BEBFA10EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32150041-40A8-428E-8A15-13BCB58C64E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Erik</author>
+    <author>tc={5320A0FF-9099-4C6F-AF37-98EFDE8A0114}</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -123,6 +124,14 @@
 “(BB) 2.5; and
 “(bb) the outstanding amount of a loan under subsection (b)(2) that was made during the period beginning on January 31, 2020 and ending on the date on which covered loans are made available to be refinanced under the covered loan; or </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{5320A0FF-9099-4C6F-AF37-98EFDE8A0114}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (3) the term “covered period” means the 8-week period beginning on the date of the origination of a covered loan;</t>
       </text>
     </comment>
     <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
   <si>
     <t>Employee 1</t>
   </si>
@@ -551,9 +560,6 @@
   </si>
   <si>
     <t>Covered Period:</t>
-  </si>
-  <si>
-    <t>Days</t>
   </si>
   <si>
     <t>Adjusted Compensation</t>
@@ -760,9 +766,6 @@
     <t>(iii) in which the events described in clause (i) and (ii) occur.</t>
   </si>
   <si>
-    <t>Months (based on 30-day month)</t>
-  </si>
-  <si>
     <t>Text of H.R.748 - CARES Act</t>
   </si>
   <si>
@@ -932,6 +935,9 @@
   </si>
   <si>
     <t>Loan Forgiveness Reduction</t>
+  </si>
+  <si>
+    <t>Months - For Forgiveness</t>
   </si>
 </sst>
 </file>
@@ -1199,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,6 +1221,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1320,6 +1326,12 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Erik" id="{322D9FFA-1A98-4B31-A567-441AB7C312CF}" userId="Erik" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,6 +1629,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B10" dT="2020-04-02T06:48:17.18" personId="{322D9FFA-1A98-4B31-A567-441AB7C312CF}" id="{5320A0FF-9099-4C6F-AF37-98EFDE8A0114}">
+    <text>(3) the term “covered period” means the 8-week period beginning on the date of the origination of a covered loan;</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P168"/>
@@ -1645,26 +1665,26 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G2" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="G3" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -1685,7 +1705,7 @@
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P7" s="27">
         <f>IF(SUM(P17:P47)&gt;10000000,10000000,SUM(P17:P47))</f>
@@ -1700,17 +1720,10 @@
         <v>44012</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f>C8-C7</f>
-        <v>136</v>
-      </c>
       <c r="N9" s="15"/>
       <c r="O9" s="26" t="s">
         <v>5</v>
@@ -1722,15 +1735,14 @@
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5">
-        <f>ROUNDDOWN((C8-C7)/30,1)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="27">
         <f>P7-P9</f>
@@ -1738,49 +1750,49 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="48" t="s">
-        <v>17</v>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!B$1</f>
         <v>Employee 1</v>
@@ -1810,7 +1822,7 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!C$1</f>
         <v>Employee 2</v>
@@ -1840,7 +1852,7 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!D$1</f>
         <v>Employee 3</v>
@@ -1870,7 +1882,7 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!E$1</f>
         <v>Employee 4</v>
@@ -1900,7 +1912,7 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!F$1</f>
         <v>Employee 5</v>
@@ -1930,7 +1942,7 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!G$1</f>
         <v>Employee 6</v>
@@ -1960,7 +1972,7 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!H$1</f>
         <v>Employee 7</v>
@@ -1990,7 +2002,7 @@
       <c r="P22" s="25"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!I$1</f>
         <v>Employee 8</v>
@@ -2020,7 +2032,7 @@
       <c r="P23" s="25"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!J$1</f>
         <v>Employee 9</v>
@@ -2050,7 +2062,7 @@
       <c r="P24" s="25"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!K$1</f>
         <v>Employee 10</v>
@@ -2080,7 +2092,7 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!L$1</f>
         <v>Employee 11</v>
@@ -2110,7 +2122,7 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!M$1</f>
         <v>Employee 12</v>
@@ -2140,7 +2152,7 @@
       <c r="P27" s="25"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!N$1</f>
         <v>Employee 13</v>
@@ -2170,7 +2182,7 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!O$1</f>
         <v>Employee 14</v>
@@ -2200,7 +2212,7 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!P$1</f>
         <v>Employee 15</v>
@@ -2230,7 +2242,7 @@
       <c r="P30" s="25"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!Q$1</f>
         <v>Employee 16</v>
@@ -2260,7 +2272,7 @@
       <c r="P31" s="25"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!R$1</f>
         <v>Employee 17</v>
@@ -2290,7 +2302,7 @@
       <c r="P32" s="25"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!S$1</f>
         <v>Employee 18</v>
@@ -2320,7 +2332,7 @@
       <c r="P33" s="25"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!T$1</f>
         <v>Employee 19</v>
@@ -2350,7 +2362,7 @@
       <c r="P34" s="25"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!U$1</f>
         <v>Employee 20</v>
@@ -2380,7 +2392,7 @@
       <c r="P35" s="25"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="23"/>
@@ -2398,7 +2410,7 @@
       <c r="P36" s="25"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2413,9 +2425,9 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12">
@@ -2447,21 +2459,21 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
@@ -2472,62 +2484,62 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="4"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
     </row>
     <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-    </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="47" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47" t="s">
+      <c r="E48" s="46"/>
+      <c r="F48" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="O48" s="49"/>
-      <c r="P48" s="45" t="s">
-        <v>17</v>
+      <c r="O48" s="48"/>
+      <c r="P48" s="44" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="41"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!B$1</f>
         <v>Employee 1</v>
@@ -2554,7 +2566,7 @@
       <c r="P50" s="23"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!C$1</f>
         <v>Employee 2</v>
@@ -2581,7 +2593,7 @@
       <c r="P51" s="23"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!D$1</f>
         <v>Employee 3</v>
@@ -2608,7 +2620,7 @@
       <c r="P52" s="23"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!E$1</f>
         <v>Employee 4</v>
@@ -2635,7 +2647,7 @@
       <c r="P53" s="23"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!F$1</f>
         <v>Employee 5</v>
@@ -2662,7 +2674,7 @@
       <c r="P54" s="23"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!G$1</f>
         <v>Employee 6</v>
@@ -2689,7 +2701,7 @@
       <c r="P55" s="23"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!H$1</f>
         <v>Employee 7</v>
@@ -2716,7 +2728,7 @@
       <c r="P56" s="23"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!I$1</f>
         <v>Employee 8</v>
@@ -2743,7 +2755,7 @@
       <c r="P57" s="23"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!J$1</f>
         <v>Employee 9</v>
@@ -2770,7 +2782,7 @@
       <c r="P58" s="23"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!K$1</f>
         <v>Employee 10</v>
@@ -2797,7 +2809,7 @@
       <c r="P59" s="23"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!L$1</f>
         <v>Employee 11</v>
@@ -2824,7 +2836,7 @@
       <c r="P60" s="23"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!M$1</f>
         <v>Employee 12</v>
@@ -2851,7 +2863,7 @@
       <c r="P61" s="23"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!N$1</f>
         <v>Employee 13</v>
@@ -2878,7 +2890,7 @@
       <c r="P62" s="23"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!O$1</f>
         <v>Employee 14</v>
@@ -2905,7 +2917,7 @@
       <c r="P63" s="23"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!P$1</f>
         <v>Employee 15</v>
@@ -2932,7 +2944,7 @@
       <c r="P64" s="23"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!Q$1</f>
         <v>Employee 16</v>
@@ -2959,7 +2971,7 @@
       <c r="P65" s="23"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!R$1</f>
         <v>Employee 17</v>
@@ -2986,7 +2998,7 @@
       <c r="P66" s="23"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!S$1</f>
         <v>Employee 18</v>
@@ -3013,7 +3025,7 @@
       <c r="P67" s="23"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!T$1</f>
         <v>Employee 19</v>
@@ -3040,7 +3052,7 @@
       <c r="P68" s="23"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!U$1</f>
         <v>Employee 20</v>
@@ -3067,12 +3079,12 @@
       <c r="P69" s="23"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="41"/>
     </row>
     <row r="71" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="12">
@@ -3094,7 +3106,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="13">
         <f>Period</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="13"/>
@@ -3105,29 +3117,29 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="41"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="41"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="41"/>
       <c r="D74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3144,9 +3156,9 @@
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="21"/>
@@ -3164,9 +3176,9 @@
       <c r="P76" s="23"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="25"/>
       <c r="D77" s="21"/>
@@ -3184,9 +3196,9 @@
       <c r="P77" s="23"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="21"/>
@@ -3204,9 +3216,9 @@
       <c r="P78" s="23"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="21"/>
@@ -3224,9 +3236,9 @@
       <c r="P79" s="23"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="21"/>
@@ -3244,12 +3256,12 @@
       <c r="P80" s="23"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="41"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="12">
@@ -3259,7 +3271,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="13">
         <f>$C$10</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12">
@@ -3279,7 +3291,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="10"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3296,9 +3308,9 @@
       <c r="P83" s="7"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3315,9 +3327,9 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="21"/>
@@ -3335,9 +3347,9 @@
       <c r="P85" s="23"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" s="25"/>
       <c r="D86" s="21"/>
@@ -3355,9 +3367,9 @@
       <c r="P86" s="23"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="21"/>
@@ -3375,9 +3387,9 @@
       <c r="P87" s="23"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="21"/>
@@ -3395,9 +3407,9 @@
       <c r="P88" s="23"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" s="25"/>
       <c r="D89" s="21"/>
@@ -3415,12 +3427,12 @@
       <c r="P89" s="23"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
+      <c r="A90" s="41"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="12">
@@ -3430,7 +3442,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="13">
         <f>$C$10</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12">
@@ -3450,12 +3462,12 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="41"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3472,9 +3484,9 @@
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="2"/>
@@ -3491,9 +3503,9 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="2"/>
@@ -3510,9 +3522,9 @@
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="2"/>
@@ -3529,9 +3541,9 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="2"/>
@@ -3548,9 +3560,9 @@
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="2"/>
@@ -3567,7 +3579,7 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="10"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3584,9 +3596,9 @@
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="12">
@@ -3596,7 +3608,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="13">
         <f>$C$10</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12">
@@ -3616,7 +3628,7 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="41"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3632,65 +3644,65 @@
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
+      <c r="A102" s="41"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
+      <c r="A103" s="41"/>
     </row>
     <row r="104" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="4" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="43">
+        <f>COUNTIF(D50:D69,"&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="B110" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="44">
-        <f>COUNTIF(D50:D69,"&gt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" t="s">
+      <c r="D110" s="21">
+        <v>0</v>
+      </c>
+      <c r="F110" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+      <c r="B111" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="21">
-        <v>0</v>
-      </c>
-      <c r="F110" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" t="s">
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="B112" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" t="s">
-        <v>34</v>
       </c>
       <c r="D112" s="38">
         <f>COUNTIF(D16:D35,"&gt;0")</f>
@@ -3698,12 +3710,12 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="41"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="7">
@@ -3712,12 +3724,12 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
+      <c r="A115" s="41"/>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
+      <c r="A116" s="42"/>
       <c r="B116" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -3738,53 +3750,53 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
+      <c r="A117" s="41"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
+      <c r="A118" s="41"/>
     </row>
     <row r="119" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+    </row>
+    <row r="122" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="D122" s="32" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
-    </row>
-    <row r="122" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="D122" s="32" t="s">
-        <v>39</v>
       </c>
       <c r="E122" s="35"/>
       <c r="F122" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G122" s="35"/>
       <c r="H122" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I122" s="35"/>
       <c r="J122" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L122" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
+      <c r="A123" s="41"/>
       <c r="L123" s="36"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!B$1</f>
         <v>Employee 1</v>
@@ -3811,7 +3823,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!C$1</f>
         <v>Employee 2</v>
@@ -3838,7 +3850,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!D$1</f>
         <v>Employee 3</v>
@@ -3865,7 +3877,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!E$1</f>
         <v>Employee 4</v>
@@ -3892,7 +3904,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!F$1</f>
         <v>Employee 5</v>
@@ -3919,7 +3931,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!G$1</f>
         <v>Employee 6</v>
@@ -3946,7 +3958,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!H$1</f>
         <v>Employee 7</v>
@@ -3973,7 +3985,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!I$1</f>
         <v>Employee 8</v>
@@ -4000,7 +4012,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!J$1</f>
         <v>Employee 9</v>
@@ -4027,7 +4039,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!K$1</f>
         <v>Employee 10</v>
@@ -4054,7 +4066,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!L$1</f>
         <v>Employee 11</v>
@@ -4081,7 +4093,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!M$1</f>
         <v>Employee 12</v>
@@ -4108,7 +4120,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!N$1</f>
         <v>Employee 13</v>
@@ -4135,7 +4147,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!O$1</f>
         <v>Employee 14</v>
@@ -4162,7 +4174,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!P$1</f>
         <v>Employee 15</v>
@@ -4189,7 +4201,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!Q$1</f>
         <v>Employee 16</v>
@@ -4216,7 +4228,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!R$1</f>
         <v>Employee 17</v>
@@ -4243,7 +4255,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!S$1</f>
         <v>Employee 18</v>
@@ -4270,7 +4282,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!T$1</f>
         <v>Employee 19</v>
@@ -4297,7 +4309,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="25" t="str">
         <f>'Step 1 - Payroll Calculation'!U$1</f>
         <v>Employee 20</v>
@@ -4324,12 +4336,12 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
+      <c r="A144" s="41"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
+      <c r="A145" s="41"/>
       <c r="B145" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -4354,87 +4366,87 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="39"/>
-      <c r="J152" s="39"/>
-      <c r="K152" s="39"/>
-      <c r="L152" s="39"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
+      <c r="H152" s="49"/>
+      <c r="I152" s="49"/>
+      <c r="J152" s="49"/>
+      <c r="K152" s="49"/>
+      <c r="L152" s="49"/>
     </row>
     <row r="154" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="39"/>
-      <c r="J158" s="39"/>
-      <c r="K158" s="39"/>
-      <c r="L158" s="39"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="49"/>
+      <c r="K158" s="49"/>
+      <c r="L158" s="49"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="164" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="39"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="39"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="49"/>
+      <c r="I164" s="49"/>
+      <c r="J164" s="49"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="49"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4514,63 +4526,63 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="9">
         <f>SUM(B6:B13)</f>
@@ -4655,12 +4667,12 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -4685,7 +4697,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -4710,7 +4722,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4735,7 +4747,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -4760,7 +4772,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -4785,7 +4797,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -4810,7 +4822,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4835,7 +4847,7 @@
     </row>
     <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -4863,32 +4875,32 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4928,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>'Step 1 - Payroll Calculation'!B1</f>
@@ -5001,7 +5013,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="9">
         <f>SUM(B6:B13)</f>
@@ -5086,7 +5098,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -5096,7 +5108,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -5121,7 +5133,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -5146,7 +5158,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5171,7 +5183,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -5196,7 +5208,7 @@
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -5221,7 +5233,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -5246,7 +5258,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -5299,32 +5311,32 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/SBA Calculator v1.xlsx
+++ b/SBA Calculator v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\Documents\RationalPilot\Wall Street\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32150041-40A8-428E-8A15-13BCB58C64E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8ADCB8-A5E9-432D-9BF1-471B2D35805E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,7 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1738,7 +1740,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="26" t="s">
@@ -3106,7 +3108,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="13">
         <f>Period</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="13"/>
@@ -3271,7 +3273,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="13">
         <f>$C$10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12">
@@ -3442,7 +3444,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="13">
         <f>$C$10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12">
@@ -3608,7 +3610,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="13">
         <f>$C$10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12">
